--- a/Sura/DataSource - ValidaFormularios - Emitida.xlsx
+++ b/Sura/DataSource - ValidaFormularios - Emitida.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\DataSource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393D21AB-3343-402F-93B3-572F312AE60D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069DB661-3760-4C8D-A1EF-83EC34262DC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,6 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -33,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Usuario</t>
   </si>
@@ -50,19 +42,25 @@
     <t>Ambiente</t>
   </si>
   <si>
-    <t>https://ssurgwsoadev4-oci.opc.oracleoutsourcing.com/pc/PolicyCenter.do</t>
-  </si>
-  <si>
-    <t>ssurgwsoadev4-oci.opc.oracleoutsourcing.com</t>
-  </si>
-  <si>
-    <t>gw</t>
-  </si>
-  <si>
     <t>NroPoliza</t>
   </si>
   <si>
-    <t>04104012918</t>
+    <t>silverarrow</t>
+  </si>
+  <si>
+    <t>i-preproducciongestion.segurossura.com.ar</t>
+  </si>
+  <si>
+    <t>https://i-preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
+  </si>
+  <si>
+    <t>Anulada</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>04104013566</t>
   </si>
 </sst>
 </file>
@@ -413,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,30 +453,36 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
       </c>
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
-      <c r="E3" s="3"/>
+      <c r="E3" s="4"/>
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -498,7 +502,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -517,35 +521,30 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
       <c r="E11" s="1"/>
-      <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
-      <c r="E13" s="3"/>
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
+      <c r="E14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
-      <c r="E15" s="1"/>
       <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="Q16" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{2639110A-E2EF-4399-AE1D-0970162FAC08}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{860E7A7B-1202-49B0-96ED-7A1650E1668E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Sura/DataSource - ValidaFormularios - Emitida.xlsx
+++ b/Sura/DataSource - ValidaFormularios - Emitida.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069DB661-3760-4C8D-A1EF-83EC34262DC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC47A804-D3FF-49CF-93D7-7A81F29D6DAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,22 +45,22 @@
     <t>NroPoliza</t>
   </si>
   <si>
-    <t>silverarrow</t>
-  </si>
-  <si>
-    <t>i-preproducciongestion.segurossura.com.ar</t>
-  </si>
-  <si>
-    <t>https://i-preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
-  </si>
-  <si>
     <t>Anulada</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>04104013566</t>
+    <t>04104016708</t>
+  </si>
+  <si>
+    <t>ssurgwsoadev4-oci.opc.oracleoutsourcing.com</t>
+  </si>
+  <si>
+    <t>https://ssurgwsoadev4-oci.opc.oracleoutsourcing.com/pc/PolicyCenter.do</t>
+  </si>
+  <si>
+    <t>gw</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,27 +456,27 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q2" s="1"/>
     </row>
@@ -543,10 +543,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{860E7A7B-1202-49B0-96ED-7A1650E1668E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Sura/DataSource - ValidaFormularios - Emitida.xlsx
+++ b/Sura/DataSource - ValidaFormularios - Emitida.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC47A804-D3FF-49CF-93D7-7A81F29D6DAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CD4EE3-C905-49D0-9CAD-57A0745A2467}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>04104016708</t>
-  </si>
-  <si>
     <t>ssurgwsoadev4-oci.opc.oracleoutsourcing.com</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>gw</t>
+  </si>
+  <si>
+    <t>04104017645</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,19 +461,19 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>

--- a/Sura/DataSource - ValidaFormularios - Emitida.xlsx
+++ b/Sura/DataSource - ValidaFormularios - Emitida.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CD4EE3-C905-49D0-9CAD-57A0745A2467}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CB275B-8488-4552-990B-D39A9ACD70FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -414,7 +414,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
